--- a/biology/Zoologie/Aquarium_national_de_Cuba/Aquarium_national_de_Cuba.xlsx
+++ b/biology/Zoologie/Aquarium_national_de_Cuba/Aquarium_national_de_Cuba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Aquarium national du Cuba est un océanarium cubain situé à La Havane. Il a été fondé le 23 janvier 1960. Il comprend notamment un delphinarium de 1 200 places[1]. Il s'étend sur une surface de 2,2 hectares[2].
-Il a été mis en cause pour sa participation aux captures de dauphins sauvages dans les Caraïbes et son rôle prépondérant dans l'export à l'international dans le but d'approvisionner d'autres delphinariums[3].
+L'Aquarium national du Cuba est un océanarium cubain situé à La Havane. Il a été fondé le 23 janvier 1960. Il comprend notamment un delphinarium de 1 200 places. Il s'étend sur une surface de 2,2 hectares.
+Il a été mis en cause pour sa participation aux captures de dauphins sauvages dans les Caraïbes et son rôle prépondérant dans l'export à l'international dans le but d'approvisionner d'autres delphinariums.
 			Grand dauphin.
 			Otaries.
 			Bâtiments.
